--- a/operate_execl/liuhu.xlsx
+++ b/operate_execl/liuhu.xlsx
@@ -16,29 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>liu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>man</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy_id</t>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srejajf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46,6 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -85,8 +92,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -383,40 +396,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>123123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3">
+        <v>123.01</v>
+      </c>
+      <c r="C3">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/operate_execl/liuhu.xlsx
+++ b/operate_execl/liuhu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>liu</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,11 +38,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中文测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>srejajf</t>
+    <t xml:space="preserve">中文测试     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      srejajf      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,9 +66,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -92,14 +105,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,7 +409,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -409,48 +419,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>123123</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3">
-        <v>123.01</v>
-      </c>
-      <c r="C3">
-        <v>123123</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
